--- a/translate.xlsx
+++ b/translate.xlsx
@@ -939,7 +939,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Herzl St 60, Netanya. Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">Израиль г. Нетания улица Гурцель 60</t>
+    <t xml:space="preserve">Израиль г. Нетания улица Герцель 60</t>
   </si>
   <si>
     <t xml:space="preserve">Herzl St 60, Netanya. Israël</t>
@@ -902,7 +902,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -323,7 +323,7 @@
     <t xml:space="preserve">interior and exterior car cleaning </t>
   </si>
   <si>
-    <t xml:space="preserve">Внутренняя и наружняямойка</t>
+    <t xml:space="preserve">Внутренняя и наружня ямойка</t>
   </si>
   <si>
     <t xml:space="preserve">Nettoyage automobile intérieur et extérieur</t>
@@ -902,7 +902,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -323,7 +323,7 @@
     <t xml:space="preserve">interior and exterior car cleaning </t>
   </si>
   <si>
-    <t xml:space="preserve">Внутренняя и наружня ямойка</t>
+    <t xml:space="preserve">Внутренняя и наружняя мойка</t>
   </si>
   <si>
     <t xml:space="preserve">Nettoyage automobile intérieur et extérieur</t>
@@ -901,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -902,7 +902,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -323,7 +323,7 @@
     <t xml:space="preserve">interior and exterior car cleaning </t>
   </si>
   <si>
-    <t xml:space="preserve">Внутренняя и наружняя мойка</t>
+    <t xml:space="preserve">Внутренняя и наружная мойка</t>
   </si>
   <si>
     <t xml:space="preserve">Nettoyage automobile intérieur et extérieur</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">Leather conditioning of the interior. Tire shine.</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка и пропитка кожаной отделки салона. глубокая отчистка дисковых(колес)</t>
+    <t xml:space="preserve">Чистка и пропитка кожаной отделки салона. глубокая очистка дисковых(колес)</t>
   </si>
   <si>
     <t xml:space="preserve">Conditionnement en cuir de l'intérieur. Brillance des pneus.</t>
@@ -657,7 +657,7 @@
     <t xml:space="preserve">Car wash in Kenyon HaSharon on floor -5. There are many different services for your car. An hour of free parking. Discounts. A comfortable waiting zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Автомойка находится в городе Натания. Герцель 60. Каньон ха шарон. на -5 этаже паркинга. Есть много различных услуг для вашего автомобиля. Час бесплатной парковки. Скидки для постоянных клиентов. Приятная и удобная зона отдыха, ожидания</t>
+    <t xml:space="preserve">Автомойка находится в городе Натания. Герцель 60. Каньон ха шарон. на -5 этаже паркинга. Много различных услуг для вашего автомобиля. Час бесплатной парковки. Скидки для постоянных клиентов. Приятная и удобная зона отдыха, ожидания</t>
   </si>
   <si>
     <t xml:space="preserve">Lavage de voiture à Kenyon HaSharon sur le sol -5. Il existe de nombreux services différents pour votre voiture. Une heure de stationnement gratuit. Réductions. Une zone d'attente confortable</t>
@@ -901,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
